--- a/config_2.9/fish_face_config.xlsx
+++ b/config_2.9/fish_face_config.xlsx
@@ -149,15 +149,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新年大吉，万事如意!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牛献礼，金玉满堂！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财进宝，八方来财！</t>
+    <t>招财进宝，八方来财!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打倒我有丰厚奖励哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财源滚滚，大吉大利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,10 +238,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -265,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,8 +336,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -578,7 +623,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+      <selection pane="topRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1129,11 +1174,11 @@
       <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1160,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/config_2.9/fish_face_config.xlsx
+++ b/config_2.9/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>年兽祈福，财运亨通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换礼，招财进宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金玉满堂，八方来财</t>
+    <t>新年大吉，万事如意!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛献礼，金玉满堂！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财进宝，八方来财！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I21" sqref="I21"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
